--- a/assigment Tasks/march 14,22.xlsx
+++ b/assigment Tasks/march 14,22.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>Assigment 1</t>
   </si>
@@ -120,6 +120,48 @@
   </si>
   <si>
     <t>Asma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidra </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Ali hassnain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yousra Shiekh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asma </t>
+  </si>
+  <si>
+    <t>kashaf</t>
+  </si>
+  <si>
+    <t>Nadeem</t>
+  </si>
+  <si>
+    <t>Qaiser Nadeem</t>
+  </si>
+  <si>
+    <t>Sobhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laiq </t>
+  </si>
+  <si>
+    <t>Aneeza</t>
+  </si>
+  <si>
+    <t>Binyamine</t>
+  </si>
+  <si>
+    <t>AbdulMoiz</t>
   </si>
 </sst>
 </file>
@@ -440,19 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F26"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -473,8 +516,14 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -484,8 +533,14 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -495,8 +550,14 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -506,8 +567,14 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -517,8 +584,14 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -528,8 +601,14 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -539,8 +618,14 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -550,8 +635,14 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -561,8 +652,14 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -572,8 +669,14 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -583,8 +686,14 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -594,8 +703,14 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -605,8 +720,14 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -617,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
